--- a/학습자료/단답형/오답노트/오답노트_테스트_객관식_영어_단어_기출.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_테스트_객관식_영어_단어_기출.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -551,14 +551,39 @@
           <t>속이다</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>20230108</t>
-        </is>
+      <c r="D5" t="n">
+        <v>20230108</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>08시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>unreserved</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>솔직한</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20230114</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>12시 19분</t>
         </is>
       </c>
     </row>
